--- a/biology/Zoologie/Corneille_du_Cap/Corneille_du_Cap.xlsx
+++ b/biology/Zoologie/Corneille_du_Cap/Corneille_du_Cap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corvus capensis
 La Corneille du Cap (Corvus capensis) est une espèce de passereau de la famille des Corvidae.
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est d'une taille légèrement supérieure à la Corneille noire.
-Elle a été identifiée parmi les prédateurs de larves de Cirina forda dont elle se nourrit[1]
-La principale période de reproduction se situe entre Août et Novembre. La période d'incubation des œufs est de 18 jours et les deux parents se relaient pour couver. Son régime alimentaire est très varié et consiste entre autres de matières végétales (fruits, bulbes et racines), des insectes et quelques petits vertébrés tels les amphibiens ou de petits poulets[2].
+Elle a été identifiée parmi les prédateurs de larves de Cirina forda dont elle se nourrit
+La principale période de reproduction se situe entre Août et Novembre. La période d'incubation des œufs est de 18 jours et les deux parents se relaient pour couver. Son régime alimentaire est très varié et consiste entre autres de matières végétales (fruits, bulbes et racines), des insectes et quelques petits vertébrés tels les amphibiens ou de petits poulets.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Répartition et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C. c. kordofanensis Laubmann, 1919 : Afrique de l'Est ;
 C. c. capensis Lichtenstein, MHK, 1823 : Afrique australe.
